--- a/excel/Msg_Type.xlsx
+++ b/excel/Msg_Type.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>sendTypeMms</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>SMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MMS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -383,11 +379,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -429,34 +423,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
